--- a/LaTech/540_Database/Submissions/Assignments/Assignment 4/Assignment 4.xlsx
+++ b/LaTech/540_Database/Submissions/Assignments/Assignment 4/Assignment 4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb7e957c80ce88a9/Documents/Professional/Study/LaTech/540_Database/Submissions/Assignments/Assignment 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{5D84D8C7-BDFB-4661-87D9-A2A5609DC622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1CC9C65-CBDB-4136-9AE7-99810705C723}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{5D84D8C7-BDFB-4661-87D9-A2A5609DC622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01590B02-937C-4E39-A69A-188C5F361DDC}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{3C83FC91-92C3-4E17-948A-F3C72A2F8F3C}"/>
+    <workbookView xWindow="-28905" yWindow="-90" windowWidth="14610" windowHeight="15585" xr2:uid="{3C83FC91-92C3-4E17-948A-F3C72A2F8F3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t>Book_type</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>No: Data structure, Systems programming</t>
+  </si>
+  <si>
+    <t>Assuming all attributes to have atomic values, the relation in 1NF. In FD3, there is partial functional dependency between author_name and Author_affil. In FD1, there is partial functional dependency among Book_title, Publisher and Book_type. So the relation is not in 2NF.</t>
+  </si>
+  <si>
+    <t>For 2NF, we will decompose partial dependencies</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>1b</t>
   </si>
 </sst>
 </file>
@@ -107,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,13 +127,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -137,6 +165,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,147 +468,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0382EB9C-4EC7-4B65-B3ED-8DFF2E3D4911}">
-  <dimension ref="B2:G26"/>
+  <dimension ref="A2:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="K10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
+      <c r="L13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>6</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>7</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>8</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>9</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
         <v>10</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C34" t="s">
         <v>13</v>
       </c>
     </row>
